--- a/apps/load_data/2019/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/03/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0319\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\HHY0319\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6A87EF-F08E-4637-BC61-E228A2BA2299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B7BAB3-7421-4DB5-AB1A-72FCA526A7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$291</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$291</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12260" uniqueCount="3568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12238" uniqueCount="3565">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7789,9 +7790,6 @@
     <t>0050A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -9184,9 +9182,6 @@
     <t>0056A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -9554,9 +9549,6 @@
   </si>
   <si>
     <t>0169A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10732,7 +10724,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11572,10 +11564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD293" sqref="AD293"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47109,12 +47103,7 @@
       <c r="AB194" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>106</v>
       </c>
@@ -47167,7 +47156,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>114</v>
@@ -47179,10 +47168,10 @@
         <v>116</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>119</v>
@@ -47197,13 +47186,13 @@
         <v>162</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BS194" s="3">
         <v>36225</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>123</v>
@@ -47224,19 +47213,19 @@
         <v>111</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>131</v>
@@ -47274,19 +47263,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="Q195" s="3">
         <v>27241</v>
@@ -47312,12 +47301,7 @@
       <c r="AB195" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -47364,7 +47348,7 @@
         <v>111</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BB195" s="1">
         <v>3</v>
@@ -47373,7 +47357,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>114</v>
@@ -47385,10 +47369,10 @@
         <v>116</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>119</v>
@@ -47400,13 +47384,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BS195" s="3">
         <v>36949</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>123</v>
@@ -47430,19 +47414,19 @@
         <v>111</v>
       </c>
       <c r="CC195" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="CD195" s="1" t="s">
         <v>2239</v>
       </c>
       <c r="CE195" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="CG195" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>131</v>
@@ -47480,19 +47464,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="Q196" s="3">
         <v>25223</v>
@@ -47518,12 +47502,7 @@
       <c r="AB196" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>106</v>
       </c>
@@ -47570,7 +47549,7 @@
         <v>111</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BB196" s="1">
         <v>3</v>
@@ -47579,7 +47558,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>114</v>
@@ -47591,10 +47570,10 @@
         <v>116</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>119</v>
@@ -47606,13 +47585,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BS196" s="3">
         <v>36825</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>123</v>
@@ -47636,19 +47615,19 @@
         <v>111</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>131</v>
@@ -47686,19 +47665,19 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="Q197" s="3">
         <v>27018</v>
@@ -47721,12 +47700,7 @@
       <c r="AA197" s="1">
         <v>0</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>106</v>
       </c>
@@ -47776,7 +47750,7 @@
         <v>111</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BB197" s="1">
         <v>3</v>
@@ -47785,7 +47759,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>114</v>
@@ -47797,7 +47771,7 @@
         <v>116</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>814</v>
@@ -47809,7 +47783,7 @@
         <v>105</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>123</v>
@@ -47827,16 +47801,16 @@
         <v>111</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1370</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>820</v>
@@ -47877,19 +47851,19 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="Q198" s="3">
         <v>29037</v>
@@ -47915,12 +47889,7 @@
       <c r="AB198" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>106</v>
       </c>
@@ -47970,7 +47939,7 @@
         <v>111</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BB198" s="1">
         <v>3</v>
@@ -47979,7 +47948,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>114</v>
@@ -47991,13 +47960,13 @@
         <v>116</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>123</v>
@@ -48018,13 +47987,13 @@
         <v>746</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>131</v>
@@ -48065,19 +48034,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="Q199" s="3">
         <v>26647</v>
@@ -48100,12 +48069,7 @@
       <c r="AA199" s="1">
         <v>0</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>106</v>
       </c>
@@ -48155,7 +48119,7 @@
         <v>111</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BB199" s="1">
         <v>3</v>
@@ -48164,7 +48128,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>114</v>
@@ -48176,7 +48140,7 @@
         <v>116</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>650</v>
@@ -48188,7 +48152,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>123</v>
@@ -48206,16 +48170,16 @@
         <v>111</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="CD199" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="CD199" s="1" t="s">
-        <v>2658</v>
-      </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>657</v>
@@ -48256,19 +48220,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q200" s="3">
         <v>25405</v>
@@ -48297,12 +48261,7 @@
       <c r="AA200" s="1">
         <v>0</v>
       </c>
-      <c r="AC200" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>106</v>
       </c>
@@ -48349,7 +48308,7 @@
         <v>111</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BB200" s="1">
         <v>3</v>
@@ -48358,7 +48317,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>114</v>
@@ -48370,10 +48329,10 @@
         <v>116</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>119</v>
@@ -48385,13 +48344,13 @@
         <v>120</v>
       </c>
       <c r="BR200" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BS200" s="3">
         <v>35243</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>123</v>
@@ -48409,19 +48368,19 @@
         <v>111</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="CG200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>131</v>
@@ -48459,19 +48418,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Q201" s="3">
         <v>28845</v>
@@ -48494,12 +48453,7 @@
       <c r="AA201" s="1">
         <v>0</v>
       </c>
-      <c r="AC201" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC201" s="3"/>
       <c r="AF201" s="1" t="s">
         <v>106</v>
       </c>
@@ -48549,7 +48503,7 @@
         <v>111</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BB201" s="1">
         <v>3</v>
@@ -48558,7 +48512,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>114</v>
@@ -48570,7 +48524,7 @@
         <v>116</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>650</v>
@@ -48582,7 +48536,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>123</v>
@@ -48600,16 +48554,16 @@
         <v>111</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>657</v>
@@ -48650,19 +48604,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="Q202" s="3">
         <v>21425</v>
@@ -48685,12 +48639,7 @@
       <c r="AA202" s="1">
         <v>0</v>
       </c>
-      <c r="AC202" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD202" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC202" s="3"/>
       <c r="AF202" s="1" t="s">
         <v>106</v>
       </c>
@@ -48740,7 +48689,7 @@
         <v>111</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BB202" s="1">
         <v>3</v>
@@ -48749,7 +48698,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>114</v>
@@ -48761,7 +48710,7 @@
         <v>116</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>650</v>
@@ -48776,7 +48725,7 @@
         <v>162</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>123</v>
@@ -48794,16 +48743,16 @@
         <v>111</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>657</v>
@@ -48844,19 +48793,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="Q203" s="3">
         <v>23039</v>
@@ -48879,12 +48828,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>106</v>
       </c>
@@ -48931,7 +48875,7 @@
         <v>111</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BB203" s="1">
         <v>3</v>
@@ -48940,7 +48884,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>114</v>
@@ -48952,7 +48896,7 @@
         <v>116</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>503</v>
@@ -48967,13 +48911,13 @@
         <v>225</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BS203" s="3">
         <v>34307</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>123</v>
@@ -48991,16 +48935,16 @@
         <v>111</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>462</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>510</v>
@@ -49041,19 +48985,19 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="Q204" s="3">
         <v>23286</v>
@@ -49079,12 +49023,7 @@
       <c r="AA204" s="1">
         <v>0</v>
       </c>
-      <c r="AC204" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC204" s="3"/>
       <c r="AF204" s="1" t="s">
         <v>106</v>
       </c>
@@ -49134,7 +49073,7 @@
         <v>111</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BB204" s="1">
         <v>3</v>
@@ -49143,7 +49082,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>114</v>
@@ -49155,7 +49094,7 @@
         <v>116</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>937</v>
@@ -49167,7 +49106,7 @@
         <v>105</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>123</v>
@@ -49188,16 +49127,16 @@
         <v>111</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>942</v>
@@ -49238,19 +49177,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="Q205" s="3">
         <v>26907</v>
@@ -49273,12 +49212,7 @@
       <c r="AA205" s="1">
         <v>0</v>
       </c>
-      <c r="AC205" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2588</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>106</v>
       </c>
@@ -49325,7 +49259,7 @@
         <v>111</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BB205" s="1">
         <v>3</v>
@@ -49334,7 +49268,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>114</v>
@@ -49346,7 +49280,7 @@
         <v>116</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>650</v>
@@ -49361,13 +49295,13 @@
         <v>120</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BS205" s="3">
         <v>35950</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>123</v>
@@ -49385,16 +49319,16 @@
         <v>111</v>
       </c>
       <c r="CC205" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="CD205" s="1" t="s">
         <v>2021</v>
       </c>
       <c r="CE205" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="CG205" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>657</v>
@@ -49435,10 +49369,10 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>398</v>
@@ -49519,7 +49453,7 @@
         <v>362</v>
       </c>
       <c r="CE206" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="207" spans="1:87" x14ac:dyDescent="0.25">
@@ -49533,10 +49467,10 @@
         <v>94</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>398</v>
@@ -49605,7 +49539,7 @@
         <v>0</v>
       </c>
       <c r="BZ207" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="CA207" s="1" t="s">
         <v>125</v>
@@ -49617,7 +49551,7 @@
         <v>362</v>
       </c>
       <c r="CE207" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="208" spans="1:87" x14ac:dyDescent="0.25">
@@ -49652,19 +49586,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="Q208" s="3">
         <v>28642</v>
@@ -49739,7 +49673,7 @@
         <v>111</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BB208" s="1">
         <v>3</v>
@@ -49748,7 +49682,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>114</v>
@@ -49760,10 +49694,10 @@
         <v>116</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>119</v>
@@ -49775,7 +49709,7 @@
         <v>162</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>123</v>
@@ -49793,19 +49727,19 @@
         <v>111</v>
       </c>
       <c r="CC208" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="CD208" s="1" t="s">
         <v>462</v>
       </c>
       <c r="CE208" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>131</v>
@@ -49843,19 +49777,19 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="Q209" s="3">
         <v>28239</v>
@@ -49924,7 +49858,7 @@
         <v>111</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BB209" s="1">
         <v>3</v>
@@ -49933,7 +49867,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>114</v>
@@ -49945,10 +49879,10 @@
         <v>116</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>119</v>
@@ -49960,13 +49894,13 @@
         <v>225</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BS209" s="3">
         <v>36099</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>123</v>
@@ -49984,19 +49918,19 @@
         <v>111</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="CG209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>131</v>
@@ -50034,19 +49968,19 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="Q210" s="3">
         <v>25589</v>
@@ -50115,7 +50049,7 @@
         <v>111</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BB210" s="1">
         <v>3</v>
@@ -50124,7 +50058,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>114</v>
@@ -50136,10 +50070,10 @@
         <v>116</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2775</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>119</v>
@@ -50151,13 +50085,13 @@
         <v>102</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BS210" s="3">
         <v>37735</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>123</v>
@@ -50175,19 +50109,19 @@
         <v>111</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="CG210" s="1" t="s">
+      <c r="CH210" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>131</v>
@@ -50225,19 +50159,19 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="Q211" s="3">
         <v>29170</v>
@@ -50309,7 +50243,7 @@
         <v>111</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="BB211" s="1">
         <v>3</v>
@@ -50318,7 +50252,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>114</v>
@@ -50330,7 +50264,7 @@
         <v>116</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>937</v>
@@ -50342,7 +50276,7 @@
         <v>105</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>123</v>
@@ -50360,16 +50294,16 @@
         <v>111</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>976</v>
       </c>
       <c r="CE211" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="CG211" s="1" t="s">
         <v>2793</v>
-      </c>
-      <c r="CG211" s="1" t="s">
-        <v>2794</v>
       </c>
       <c r="CH211" s="1" t="s">
         <v>942</v>
@@ -50410,19 +50344,19 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="Q212" s="3">
         <v>27250</v>
@@ -50449,7 +50383,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>2154</v>
@@ -50494,7 +50428,7 @@
         <v>111</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BB212" s="1">
         <v>3</v>
@@ -50503,7 +50437,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>114</v>
@@ -50515,7 +50449,7 @@
         <v>116</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>411</v>
@@ -50527,7 +50461,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>123</v>
@@ -50548,13 +50482,13 @@
         <v>1774</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="CE212" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="CE212" s="1" t="s">
+      <c r="CG212" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>419</v>
@@ -50595,19 +50529,19 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="Q213" s="3">
         <v>27999</v>
@@ -50679,7 +50613,7 @@
         <v>111</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="BB213" s="1">
         <v>3</v>
@@ -50688,7 +50622,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>114</v>
@@ -50700,7 +50634,7 @@
         <v>116</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>2237</v>
@@ -50712,7 +50646,7 @@
         <v>105</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>123</v>
@@ -50736,10 +50670,10 @@
         <v>1071</v>
       </c>
       <c r="CE213" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="CG213" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="CG213" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="CH213" s="1" t="s">
         <v>2242</v>
@@ -50780,19 +50714,19 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="Q214" s="3">
         <v>29305</v>
@@ -50864,7 +50798,7 @@
         <v>111</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="BB214" s="1">
         <v>3</v>
@@ -50873,7 +50807,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>114</v>
@@ -50885,7 +50819,7 @@
         <v>116</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>650</v>
@@ -50897,7 +50831,7 @@
         <v>105</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>123</v>
@@ -50915,16 +50849,16 @@
         <v>111</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="CE214" s="1" t="s">
+      <c r="CG214" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2828</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>657</v>
@@ -50965,19 +50899,19 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="Q215" s="3">
         <v>23125</v>
@@ -51010,7 +50944,7 @@
         <v>42247</v>
       </c>
       <c r="AD215" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="AF215" s="1" t="s">
         <v>106</v>
@@ -51064,7 +50998,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>114</v>
@@ -51076,10 +51010,10 @@
         <v>116</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>119</v>
@@ -51091,13 +51025,13 @@
         <v>225</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BS215" s="3">
         <v>36580</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>123</v>
@@ -51118,7 +51052,7 @@
         <v>111</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="CD215" s="1" t="s">
         <v>303</v>
@@ -51127,10 +51061,10 @@
         <v>1805</v>
       </c>
       <c r="CG215" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CH215" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>131</v>
@@ -51168,19 +51102,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2843</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2844</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="Q216" s="3">
         <v>30023</v>
@@ -51255,7 +51189,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>114</v>
@@ -51267,7 +51201,7 @@
         <v>116</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>2129</v>
@@ -51282,13 +51216,13 @@
         <v>120</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="BS216" s="3">
         <v>37747</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>123</v>
@@ -51312,10 +51246,10 @@
         <v>733</v>
       </c>
       <c r="CE216" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="CG216" s="1" t="s">
         <v>2850</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>2136</v>
@@ -51356,19 +51290,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="Q217" s="3">
         <v>26205</v>
@@ -51446,7 +51380,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>114</v>
@@ -51458,7 +51392,7 @@
         <v>116</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>119</v>
@@ -51467,7 +51401,7 @@
         <v>105</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>123</v>
@@ -51485,16 +51419,16 @@
         <v>111</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2861</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2862</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>131</v>
@@ -51535,19 +51469,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="Q218" s="3">
         <v>31662</v>
@@ -51625,7 +51559,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>114</v>
@@ -51637,7 +51571,7 @@
         <v>116</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>650</v>
@@ -51649,7 +51583,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>123</v>
@@ -51667,16 +51601,16 @@
         <v>111</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2870</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2872</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2873</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>657</v>
@@ -51717,19 +51651,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="Q219" s="3">
         <v>29117</v>
@@ -51804,7 +51738,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>114</v>
@@ -51816,10 +51750,10 @@
         <v>116</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2879</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>119</v>
@@ -51831,13 +51765,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="BS219" s="3">
         <v>37334</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>123</v>
@@ -51858,16 +51792,16 @@
         <v>566</v>
       </c>
       <c r="CD219" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="CG219" s="1" t="s">
+      <c r="CH219" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>131</v>
@@ -51905,19 +51839,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2889</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="Q220" s="3">
         <v>30007</v>
@@ -51992,7 +51926,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>114</v>
@@ -52004,7 +51938,7 @@
         <v>116</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>2340</v>
@@ -52019,13 +51953,13 @@
         <v>102</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="BS220" s="3">
         <v>37904</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>123</v>
@@ -52046,13 +51980,13 @@
         <v>1071</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2897</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>2346</v>
@@ -52093,19 +52027,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2900</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="Q221" s="3">
         <v>26221</v>
@@ -52180,7 +52114,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>114</v>
@@ -52192,7 +52126,7 @@
         <v>116</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>937</v>
@@ -52207,13 +52141,13 @@
         <v>120</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="BS221" s="3">
         <v>36111</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>123</v>
@@ -52231,16 +52165,16 @@
         <v>111</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="CE221" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="CG221" s="1" t="s">
         <v>2907</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2908</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>942</v>
@@ -52281,19 +52215,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2909</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2910</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2911</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="Q222" s="3">
         <v>27571</v>
@@ -52368,7 +52302,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>114</v>
@@ -52380,10 +52314,10 @@
         <v>116</v>
       </c>
       <c r="BH222" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="BI222" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="BI222" s="1" t="s">
-        <v>2915</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>119</v>
@@ -52395,13 +52329,13 @@
         <v>120</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="BS222" s="3">
         <v>37785</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>123</v>
@@ -52419,19 +52353,19 @@
         <v>111</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2918</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="CG222" s="1" t="s">
+      <c r="CH222" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="CH222" s="1" t="s">
-        <v>2922</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>131</v>
@@ -52469,19 +52403,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2924</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2925</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="Q223" s="3">
         <v>30041</v>
@@ -52559,7 +52493,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>114</v>
@@ -52571,7 +52505,7 @@
         <v>116</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>2129</v>
@@ -52583,7 +52517,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>123</v>
@@ -52604,13 +52538,13 @@
         <v>1408</v>
       </c>
       <c r="CD223" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="CE223" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2931</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2932</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>2136</v>
@@ -52651,19 +52585,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2933</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2934</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2935</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="Q224" s="3">
         <v>30993</v>
@@ -52735,7 +52669,7 @@
         <v>111</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="BB224" s="1">
         <v>3</v>
@@ -52744,7 +52678,7 @@
         <v>19</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>114</v>
@@ -52756,7 +52690,7 @@
         <v>116</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>119</v>
@@ -52765,7 +52699,7 @@
         <v>105</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>123</v>
@@ -52783,16 +52717,16 @@
         <v>111</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2941</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2942</v>
       </c>
-      <c r="CE224" s="1" t="s">
+      <c r="CG224" s="1" t="s">
         <v>2943</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2944</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>131</v>
@@ -52833,19 +52767,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2946</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2947</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="Q225" s="3">
         <v>30065</v>
@@ -52917,7 +52851,7 @@
         <v>111</v>
       </c>
       <c r="AZ225" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="BB225" s="1">
         <v>3</v>
@@ -52926,7 +52860,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>114</v>
@@ -52938,7 +52872,7 @@
         <v>116</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>411</v>
@@ -52950,7 +52884,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>123</v>
@@ -52968,16 +52902,16 @@
         <v>111</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="CE225" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="CG225" s="1" t="s">
         <v>2953</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2954</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>419</v>
@@ -53018,19 +52952,19 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2955</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2956</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2957</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="Q226" s="3">
         <v>30033</v>
@@ -53102,7 +53036,7 @@
         <v>111</v>
       </c>
       <c r="AZ226" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="BB226" s="1">
         <v>3</v>
@@ -53111,7 +53045,7 @@
         <v>19</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>114</v>
@@ -53123,7 +53057,7 @@
         <v>116</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>119</v>
@@ -53132,7 +53066,7 @@
         <v>105</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>123</v>
@@ -53153,13 +53087,13 @@
         <v>1254</v>
       </c>
       <c r="CD226" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2963</v>
       </c>
-      <c r="CE226" s="1" t="s">
+      <c r="CG226" s="1" t="s">
         <v>2964</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2965</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>131</v>
@@ -53200,19 +53134,19 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2966</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2967</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2968</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="Q227" s="3">
         <v>29411</v>
@@ -53281,7 +53215,7 @@
         <v>111</v>
       </c>
       <c r="AZ227" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="BB227" s="1">
         <v>3</v>
@@ -53290,7 +53224,7 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>114</v>
@@ -53302,7 +53236,7 @@
         <v>116</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="BI227" s="1" t="s">
         <v>411</v>
@@ -53317,13 +53251,13 @@
         <v>225</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="BS227" s="3">
         <v>37513</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>123</v>
@@ -53341,16 +53275,16 @@
         <v>111</v>
       </c>
       <c r="CC227" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="CD227" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CE227" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="CG227" s="1" t="s">
         <v>2976</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2977</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>419</v>
@@ -53391,19 +53325,19 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2978</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2979</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2980</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="Q228" s="3">
         <v>32173</v>
@@ -53478,7 +53412,7 @@
         <v>19</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>114</v>
@@ -53490,10 +53424,10 @@
         <v>116</v>
       </c>
       <c r="BH228" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2983</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2984</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>119</v>
@@ -53505,13 +53439,13 @@
         <v>102</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="BS228" s="3">
         <v>41024</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>123</v>
@@ -53529,19 +53463,19 @@
         <v>111</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="CD228" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="CD228" s="1" t="s">
+      <c r="CE228" s="1" t="s">
         <v>2988</v>
       </c>
-      <c r="CE228" s="1" t="s">
+      <c r="CG228" s="1" t="s">
         <v>2989</v>
       </c>
-      <c r="CG228" s="1" t="s">
+      <c r="CH228" s="1" t="s">
         <v>2990</v>
-      </c>
-      <c r="CH228" s="1" t="s">
-        <v>2991</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>131</v>
@@ -53579,19 +53513,19 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2992</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2993</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2994</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="Q229" s="3">
         <v>18645</v>
@@ -53618,7 +53552,7 @@
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>2154</v>
@@ -53642,28 +53576,28 @@
         <v>110</v>
       </c>
       <c r="AQ229" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="AR229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY229" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ229" s="1" t="s">
         <v>2996</v>
-      </c>
-      <c r="AR229" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS229" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT229" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU229" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV229" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY229" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ229" s="1" t="s">
-        <v>2997</v>
       </c>
       <c r="BB229" s="1">
         <v>3</v>
@@ -53672,7 +53606,7 @@
         <v>19</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="BE229" s="1" t="s">
         <v>114</v>
@@ -53684,7 +53618,7 @@
         <v>116</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>2129</v>
@@ -53699,13 +53633,13 @@
         <v>120</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="BS229" s="3">
         <v>34808</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>123</v>
@@ -53723,16 +53657,16 @@
         <v>111</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="CE229" s="1" t="s">
+      <c r="CG229" s="1" t="s">
         <v>3004</v>
-      </c>
-      <c r="CG229" s="1" t="s">
-        <v>3005</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>2136</v>
@@ -53773,19 +53707,19 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>3008</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="Q230" s="3">
         <v>30408</v>
@@ -53854,7 +53788,7 @@
         <v>111</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="BB230" s="1">
         <v>3</v>
@@ -53863,7 +53797,7 @@
         <v>19</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="BE230" s="1" t="s">
         <v>114</v>
@@ -53875,10 +53809,10 @@
         <v>116</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>3012</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>3013</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>119</v>
@@ -53890,13 +53824,13 @@
         <v>102</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="BS230" s="3">
         <v>37336</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>123</v>
@@ -53914,19 +53848,19 @@
         <v>111</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>3016</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>3017</v>
       </c>
-      <c r="CE230" s="1" t="s">
+      <c r="CG230" s="1" t="s">
         <v>3018</v>
       </c>
-      <c r="CG230" s="1" t="s">
+      <c r="CH230" s="1" t="s">
         <v>3019</v>
-      </c>
-      <c r="CH230" s="1" t="s">
-        <v>3020</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>131</v>
@@ -53964,19 +53898,19 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>3022</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>3023</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="Q231" s="3">
         <v>28132</v>
@@ -54048,7 +53982,7 @@
         <v>111</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="BB231" s="1">
         <v>3</v>
@@ -54057,7 +53991,7 @@
         <v>19</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="BE231" s="1" t="s">
         <v>114</v>
@@ -54069,7 +54003,7 @@
         <v>116</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>814</v>
@@ -54081,7 +54015,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>123</v>
@@ -54099,16 +54033,16 @@
         <v>111</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>3029</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>3030</v>
       </c>
-      <c r="CE231" s="1" t="s">
+      <c r="CG231" s="1" t="s">
         <v>3031</v>
-      </c>
-      <c r="CG231" s="1" t="s">
-        <v>3032</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>820</v>
@@ -54149,19 +54083,19 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>3034</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>3035</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q232" s="3">
         <v>31743</v>
@@ -54239,7 +54173,7 @@
         <v>19</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="BE232" s="1" t="s">
         <v>114</v>
@@ -54251,7 +54185,7 @@
         <v>116</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>119</v>
@@ -54260,7 +54194,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>123</v>
@@ -54278,16 +54212,16 @@
         <v>111</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>3041</v>
       </c>
-      <c r="CE232" s="1" t="s">
+      <c r="CG232" s="1" t="s">
         <v>3042</v>
-      </c>
-      <c r="CG232" s="1" t="s">
-        <v>3043</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>131</v>
@@ -54310,7 +54244,7 @@
         <v>90</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -54322,16 +54256,16 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>3046</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>3047</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>110</v>
@@ -54400,7 +54334,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>125</v>
@@ -54412,7 +54346,7 @@
         <v>362</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="234" spans="1:87" x14ac:dyDescent="0.25">
@@ -54447,19 +54381,19 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>3049</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>3050</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>3051</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="Q234" s="3">
         <v>23750</v>
@@ -54488,12 +54422,7 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>106</v>
       </c>
@@ -54543,7 +54472,7 @@
         <v>111</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="BB234" s="1">
         <v>3</v>
@@ -54552,7 +54481,7 @@
         <v>19</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="BE234" s="1" t="s">
         <v>114</v>
@@ -54564,10 +54493,10 @@
         <v>116</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="BI234" s="1" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>119</v>
@@ -54576,7 +54505,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>123</v>
@@ -54600,16 +54529,16 @@
         <v>1307</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="CE234" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="CG234" s="1" t="s">
         <v>3059</v>
       </c>
-      <c r="CE234" s="1" t="s">
+      <c r="CH234" s="1" t="s">
         <v>3060</v>
-      </c>
-      <c r="CG234" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="CH234" s="1" t="s">
-        <v>3062</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>131</v>
@@ -54647,10 +54576,10 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>110</v>
@@ -54674,7 +54603,7 @@
         <v>106</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>61</v>
@@ -54719,7 +54648,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>125</v>
@@ -54731,7 +54660,7 @@
         <v>362</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="236" spans="1:87" x14ac:dyDescent="0.25">
@@ -54766,10 +54695,10 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>110</v>
@@ -54856,7 +54785,7 @@
         <v>362</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54873,7 +54802,7 @@
         <v>90</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>92</v>
@@ -54885,16 +54814,16 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>110</v>
@@ -54963,7 +54892,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>125</v>
@@ -54975,7 +54904,7 @@
         <v>362</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="238" spans="1:87" x14ac:dyDescent="0.25">
@@ -55010,10 +54939,10 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>110</v>
@@ -55037,7 +54966,7 @@
         <v>106</v>
       </c>
       <c r="AG238" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AH238" s="1" t="s">
         <v>407</v>
@@ -55094,7 +55023,7 @@
         <v>362</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="239" spans="1:87" x14ac:dyDescent="0.25">
@@ -55129,10 +55058,10 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>110</v>
@@ -55156,7 +55085,7 @@
         <v>106</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>407</v>
@@ -55213,7 +55142,7 @@
         <v>362</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="240" spans="1:87" x14ac:dyDescent="0.25">
@@ -55248,10 +55177,10 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>110</v>
@@ -55275,7 +55204,7 @@
         <v>106</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>407</v>
@@ -55332,7 +55261,7 @@
         <v>362</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="241" spans="1:87" x14ac:dyDescent="0.25">
@@ -55367,10 +55296,10 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>110</v>
@@ -55394,7 +55323,7 @@
         <v>106</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AH241" s="1" t="s">
         <v>407</v>
@@ -55451,7 +55380,7 @@
         <v>362</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="242" spans="1:87" x14ac:dyDescent="0.25">
@@ -55486,10 +55415,10 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>110</v>
@@ -55570,7 +55499,7 @@
         <v>362</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="243" spans="1:87" x14ac:dyDescent="0.25">
@@ -55605,10 +55534,10 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>110</v>
@@ -55689,7 +55618,7 @@
         <v>362</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="244" spans="1:87" x14ac:dyDescent="0.25">
@@ -55724,10 +55653,10 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>110</v>
@@ -55808,7 +55737,7 @@
         <v>362</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="245" spans="1:87" x14ac:dyDescent="0.25">
@@ -55843,10 +55772,10 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>110</v>
@@ -55927,7 +55856,7 @@
         <v>362</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="246" spans="1:87" x14ac:dyDescent="0.25">
@@ -55962,19 +55891,19 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="N246" s="1" t="s">
         <v>3088</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>3089</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>3090</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="Q246" s="3">
         <v>26043</v>
@@ -55997,12 +55926,7 @@
       <c r="AA246" s="1">
         <v>0</v>
       </c>
-      <c r="AC246" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AF246" s="1" t="s">
         <v>106</v>
       </c>
@@ -56055,7 +55979,7 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>114</v>
@@ -56067,7 +55991,7 @@
         <v>116</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="BI246" s="1" t="s">
         <v>937</v>
@@ -56082,13 +56006,13 @@
         <v>102</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="BS246" s="3">
         <v>36306</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>123</v>
@@ -56106,16 +56030,16 @@
         <v>111</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="CE246" s="1" t="s">
         <v>3096</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CG246" s="1" t="s">
         <v>3097</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3099</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>942</v>
@@ -56156,19 +56080,19 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>3100</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>3101</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>3102</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="Q247" s="3">
         <v>29945</v>
@@ -56191,12 +56115,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>106</v>
       </c>
@@ -56252,7 +56171,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>114</v>
@@ -56264,7 +56183,7 @@
         <v>116</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>119</v>
@@ -56273,7 +56192,7 @@
         <v>105</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>123</v>
@@ -56291,16 +56210,16 @@
         <v>111</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="CG247" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>131</v>
@@ -56341,19 +56260,19 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>3108</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>3110</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="Q248" s="3">
         <v>29034</v>
@@ -56379,12 +56298,7 @@
       <c r="AB248" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>106</v>
       </c>
@@ -56437,7 +56351,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>114</v>
@@ -56449,7 +56363,7 @@
         <v>116</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>411</v>
@@ -56464,13 +56378,13 @@
         <v>102</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="BS248" s="3">
         <v>38234</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>123</v>
@@ -56488,16 +56402,16 @@
         <v>111</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>419</v>
@@ -56538,19 +56452,19 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>3119</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>3120</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>3121</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="Q249" s="3">
         <v>29062</v>
@@ -56573,12 +56487,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>106</v>
       </c>
@@ -56634,7 +56543,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>114</v>
@@ -56646,7 +56555,7 @@
         <v>116</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>1042</v>
@@ -56658,7 +56567,7 @@
         <v>105</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>123</v>
@@ -56676,16 +56585,16 @@
         <v>111</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="CD249" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="CE249" s="1" t="s">
         <v>3126</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CG249" s="1" t="s">
         <v>3127</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>3128</v>
-      </c>
-      <c r="CG249" s="1" t="s">
-        <v>3129</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>1048</v>
@@ -56726,19 +56635,19 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>3130</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>3131</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>3132</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="Q250" s="3">
         <v>30275</v>
@@ -56761,12 +56670,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>106</v>
       </c>
@@ -56822,7 +56726,7 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>114</v>
@@ -56834,7 +56738,7 @@
         <v>116</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>1042</v>
@@ -56846,7 +56750,7 @@
         <v>105</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>123</v>
@@ -56864,16 +56768,16 @@
         <v>111</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="CE250" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CG250" s="1" t="s">
         <v>3138</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3139</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3140</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>1048</v>
@@ -56914,19 +56818,19 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="N251" s="1" t="s">
         <v>3141</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>3142</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>3143</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="Q251" s="3">
         <v>29181</v>
@@ -56949,12 +56853,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>106</v>
       </c>
@@ -57007,7 +56906,7 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>114</v>
@@ -57019,7 +56918,7 @@
         <v>116</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>650</v>
@@ -57034,13 +56933,13 @@
         <v>225</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="BS251" s="3">
         <v>37069</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>123</v>
@@ -57061,13 +56960,13 @@
         <v>831</v>
       </c>
       <c r="CD251" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3149</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3150</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3151</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>657</v>
@@ -57108,19 +57007,19 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>3152</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>3153</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>3154</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="Q252" s="3">
         <v>30033</v>
@@ -57143,12 +57042,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>106</v>
       </c>
@@ -57204,7 +57098,7 @@
         <v>19</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>114</v>
@@ -57228,7 +57122,7 @@
         <v>105</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>123</v>
@@ -57246,13 +57140,13 @@
         <v>111</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="CE252" s="1" t="s">
         <v>3158</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3159</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3160</v>
       </c>
       <c r="CG252" s="1" t="s">
         <v>1151</v>
@@ -57296,19 +57190,19 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="N253" s="1" t="s">
         <v>3161</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>3162</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>3163</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="Q253" s="3">
         <v>21523</v>
@@ -57338,7 +57232,7 @@
         <v>43403</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="AE253" s="3">
         <v>43524</v>
@@ -57392,7 +57286,7 @@
         <v>111</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="BB253" s="1">
         <v>3</v>
@@ -57401,13 +57295,13 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>119</v>
@@ -57416,7 +57310,7 @@
         <v>105</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>123</v>
@@ -57434,16 +57328,16 @@
         <v>111</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>2251</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>131</v>
@@ -57484,19 +57378,19 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="N254" s="1" t="s">
         <v>3173</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>3174</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>3175</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="Q254" s="3">
         <v>26843</v>
@@ -57519,12 +57413,7 @@
       <c r="AA254" s="1">
         <v>0</v>
       </c>
-      <c r="AC254" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD254" s="1" t="s">
-        <v>3177</v>
-      </c>
+      <c r="AC254" s="3"/>
       <c r="AF254" s="1" t="s">
         <v>106</v>
       </c>
@@ -57571,7 +57460,7 @@
         <v>111</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BB254" s="1">
         <v>3</v>
@@ -57580,7 +57469,7 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>114</v>
@@ -57592,10 +57481,10 @@
         <v>116</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BI254" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>119</v>
@@ -57607,13 +57496,13 @@
         <v>225</v>
       </c>
       <c r="BR254" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BS254" s="3">
         <v>35125</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>123</v>
@@ -57631,19 +57520,19 @@
         <v>111</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CH254" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>131</v>
@@ -57681,19 +57570,19 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="Q255" s="3">
         <v>31362</v>
@@ -57771,7 +57660,7 @@
         <v>19</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>116</v>
@@ -57780,7 +57669,7 @@
         <v>119</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>123</v>
@@ -57798,13 +57687,13 @@
         <v>92</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CG255" s="1" t="s">
         <v>131</v>
@@ -57848,19 +57737,19 @@
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="Q256" s="3">
         <v>31362</v>
@@ -57938,7 +57827,7 @@
         <v>19</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>116</v>
@@ -57947,7 +57836,7 @@
         <v>119</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>123</v>
@@ -57968,10 +57857,10 @@
         <v>612</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CG256" s="1" t="s">
         <v>131</v>
@@ -58015,19 +57904,19 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="Q257" s="3">
         <v>18106</v>
@@ -58054,7 +57943,7 @@
         <v>106</v>
       </c>
       <c r="AG257" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="AH257" s="1" t="s">
         <v>2401</v>
@@ -58105,7 +57994,7 @@
         <v>19</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>116</v>
@@ -58117,7 +58006,7 @@
         <v>162</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>123</v>
@@ -58135,13 +58024,13 @@
         <v>111</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CD257" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CG257" s="1" t="s">
         <v>131</v>
@@ -58185,22 +58074,22 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="Q258" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="R258" s="1" t="s">
         <v>102</v>
@@ -58275,7 +58164,7 @@
         <v>19</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>116</v>
@@ -58284,7 +58173,7 @@
         <v>119</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>123</v>
@@ -58293,7 +58182,7 @@
         <v>0</v>
       </c>
       <c r="BZ258" s="1" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="CA258" s="1" t="s">
         <v>125</v>
@@ -58302,13 +58191,13 @@
         <v>111</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CG258" s="1" t="s">
         <v>131</v>
@@ -58346,7 +58235,7 @@
         <v>94</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>96</v>
@@ -58355,10 +58244,10 @@
         <v>256</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N259" s="1" t="s">
         <v>258</v>
@@ -58388,7 +58277,7 @@
         <v>42582</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
@@ -58445,13 +58334,13 @@
         <v>0</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BI259" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>119</v>
@@ -58493,10 +58382,10 @@
         <v>269</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>131</v>
@@ -58516,7 +58405,7 @@
         <v>233</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>92</v>
@@ -58534,16 +58423,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="Q260" s="3">
         <v>17060</v>
@@ -58576,13 +58465,13 @@
         <v>42628</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="AH260" s="1" t="s">
         <v>140</v>
@@ -58627,22 +58516,22 @@
         <v>111</v>
       </c>
       <c r="AZ260" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="BB260" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC260" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD260" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="BH260" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="BI260" s="1" t="s">
         <v>3238</v>
-      </c>
-      <c r="BB260" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC260" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD260" s="1" t="s">
-        <v>3239</v>
-      </c>
-      <c r="BH260" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="BI260" s="1" t="s">
-        <v>3241</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>119</v>
@@ -58651,7 +58540,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>123</v>
@@ -58660,7 +58549,7 @@
         <v>0</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>125</v>
@@ -58675,13 +58564,13 @@
         <v>127</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>131</v>
@@ -58701,7 +58590,7 @@
         <v>233</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>111</v>
@@ -58719,16 +58608,16 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="Q261" s="3">
         <v>26864</v>
@@ -58758,7 +58647,7 @@
         <v>42735</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>106</v>
@@ -58812,10 +58701,10 @@
         <v>0</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>119</v>
@@ -58827,13 +58716,13 @@
         <v>225</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BS261" s="3">
         <v>102</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>123</v>
@@ -58854,16 +58743,16 @@
         <v>111</v>
       </c>
       <c r="CC261" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="CD261" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="CE261" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="CG261" s="1" t="s">
         <v>3255</v>
-      </c>
-      <c r="CD261" s="1" t="s">
-        <v>3256</v>
-      </c>
-      <c r="CE261" s="1" t="s">
-        <v>3257</v>
-      </c>
-      <c r="CG261" s="1" t="s">
-        <v>3258</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>131</v>
@@ -58904,16 +58793,16 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="Q262" s="3">
         <v>25379</v>
@@ -58943,7 +58832,7 @@
         <v>39800</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>240</v>
@@ -58997,10 +58886,10 @@
         <v>0</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>119</v>
@@ -59012,13 +58901,13 @@
         <v>398</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BS262" s="3">
         <v>35915</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>123</v>
@@ -59048,10 +58937,10 @@
         <v>475</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>131</v>
@@ -59074,7 +58963,7 @@
         <v>90</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>111</v>
@@ -59086,22 +58975,22 @@
         <v>94</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="Q263" s="3">
         <v>17470</v>
@@ -59131,7 +59020,7 @@
         <v>43100</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>106</v>
@@ -59188,10 +59077,10 @@
         <v>0</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>119</v>
@@ -59200,7 +59089,7 @@
         <v>105</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>123</v>
@@ -59224,16 +59113,16 @@
         <v>111</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="CG263" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>131</v>
@@ -59274,16 +59163,16 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="Q264" s="3">
         <v>23356</v>
@@ -59310,7 +59199,7 @@
         <v>43105</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>106</v>
@@ -59364,10 +59253,10 @@
         <v>0</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>119</v>
@@ -59379,13 +59268,13 @@
         <v>102</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="BS264" s="3">
         <v>34412</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>123</v>
@@ -59403,16 +59292,16 @@
         <v>111</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>2574</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>131</v>
@@ -59453,16 +59342,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="Q265" s="3">
         <v>17726</v>
@@ -59495,7 +59384,7 @@
         <v>43312</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>240</v>
@@ -59546,7 +59435,7 @@
         <v>111</v>
       </c>
       <c r="AZ265" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BB265" s="1">
         <v>0</v>
@@ -59555,10 +59444,10 @@
         <v>0</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>119</v>
@@ -59567,7 +59456,7 @@
         <v>105</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>123</v>
@@ -59585,16 +59474,16 @@
         <v>111</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>131</v>
@@ -59635,16 +59524,16 @@
         <v>96</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="Q266" s="3">
         <v>22645</v>
@@ -59671,13 +59560,13 @@
         <v>43298</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="AH266" s="1" t="s">
         <v>61</v>
@@ -59725,13 +59614,13 @@
         <v>0</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BI266" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>119</v>
@@ -59740,13 +59629,13 @@
         <v>102</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="BS266" s="3">
         <v>35209</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>123</v>
@@ -59755,7 +59644,7 @@
         <v>0</v>
       </c>
       <c r="BZ266" s="1" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="CA266" s="1" t="s">
         <v>125</v>
@@ -59767,16 +59656,16 @@
         <v>1858</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>131</v>
@@ -59796,7 +59685,7 @@
         <v>90</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>92</v>
@@ -59808,22 +59697,22 @@
         <v>94</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="Q267" s="3">
         <v>17041</v>
@@ -59850,7 +59739,7 @@
         <v>42735</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>106</v>
@@ -59907,10 +59796,10 @@
         <v>0</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>119</v>
@@ -59919,7 +59808,7 @@
         <v>105</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>123</v>
@@ -59931,7 +59820,7 @@
         <v>110</v>
       </c>
       <c r="BZ267" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="CA267" s="1" t="s">
         <v>125</v>
@@ -59940,16 +59829,16 @@
         <v>111</v>
       </c>
       <c r="CC267" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="CD267" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="CE267" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="CG267" s="1" t="s">
         <v>3317</v>
-      </c>
-      <c r="CD267" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="CE267" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="CG267" s="1" t="s">
-        <v>3320</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>131</v>
@@ -59990,16 +59879,16 @@
         <v>96</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="Q268" s="3">
         <v>30147</v>
@@ -60022,17 +59911,12 @@
       <c r="AA268" s="1">
         <v>0</v>
       </c>
-      <c r="AC268" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD268" s="1" t="s">
-        <v>3053</v>
-      </c>
+      <c r="AC268" s="3"/>
       <c r="AF268" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG268" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AH268" s="1" t="s">
         <v>407</v>
@@ -60080,10 +59964,10 @@
         <v>0</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>119</v>
@@ -60095,13 +59979,13 @@
         <v>102</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="BS268" s="3">
         <v>37124</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>123</v>
@@ -60119,16 +60003,16 @@
         <v>111</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="CD268" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>131</v>
@@ -60169,16 +60053,16 @@
         <v>96</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="Q269" s="3">
         <v>17821</v>
@@ -60214,7 +60098,7 @@
         <v>43388</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>106</v>
@@ -60265,7 +60149,7 @@
         <v>111</v>
       </c>
       <c r="AZ269" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="BB269" s="1">
         <v>0</v>
@@ -60274,10 +60158,10 @@
         <v>0</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>119</v>
@@ -60286,7 +60170,7 @@
         <v>105</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>123</v>
@@ -60304,16 +60188,16 @@
         <v>111</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="CE269" s="1" t="s">
         <v>552</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>131</v>
@@ -60327,10 +60211,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1380</v>
@@ -60345,7 +60229,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1380</v>
@@ -60354,19 +60238,19 @@
         <v>862</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="Q270" s="3">
         <v>24006</v>
@@ -60411,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60447,7 +60331,7 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="BE270" s="1" t="s">
         <v>114</v>
@@ -60459,13 +60343,13 @@
         <v>116</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>123</v>
@@ -60492,10 +60376,10 @@
         <v>1199</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>131</v>
@@ -60509,10 +60393,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1380</v>
@@ -60527,7 +60411,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1380</v>
@@ -60536,10 +60420,10 @@
         <v>862</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>398</v>
@@ -60578,7 +60462,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60626,7 +60510,7 @@
         <v>362</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="272" spans="1:87" x14ac:dyDescent="0.25">
@@ -60634,10 +60518,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1380</v>
@@ -60652,7 +60536,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1380</v>
@@ -60661,19 +60545,19 @@
         <v>862</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="Q272" s="3">
         <v>26193</v>
@@ -60718,7 +60602,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60754,7 +60638,7 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BE272" s="1" t="s">
         <v>114</v>
@@ -60766,13 +60650,13 @@
         <v>116</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>123</v>
@@ -60793,16 +60677,16 @@
         <v>92</v>
       </c>
       <c r="CC272" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="CD272" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="CG272" s="1" t="s">
         <v>3364</v>
-      </c>
-      <c r="CD272" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3366</v>
-      </c>
-      <c r="CG272" s="1" t="s">
-        <v>3367</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>131</v>
@@ -60816,10 +60700,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1380</v>
@@ -60834,7 +60718,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1380</v>
@@ -60843,19 +60727,19 @@
         <v>862</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="Q273" s="3">
         <v>24325</v>
@@ -60936,7 +60820,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>114</v>
@@ -60948,13 +60832,13 @@
         <v>116</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>123</v>
@@ -60975,7 +60859,7 @@
         <v>111</v>
       </c>
       <c r="CC273" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="CD273" s="1" t="s">
         <v>654</v>
@@ -60984,7 +60868,7 @@
         <v>552</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>131</v>
@@ -60998,10 +60882,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1380</v>
@@ -61016,7 +60900,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1380</v>
@@ -61025,19 +60909,19 @@
         <v>862</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P274" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="Q274" s="3">
         <v>24848</v>
@@ -61085,7 +60969,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -61121,7 +61005,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>114</v>
@@ -61133,13 +61017,13 @@
         <v>116</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>123</v>
@@ -61163,13 +61047,13 @@
         <v>535</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>131</v>
@@ -61183,10 +61067,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1380</v>
@@ -61201,7 +61085,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1380</v>
@@ -61210,19 +61094,19 @@
         <v>862</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="Q275" s="3">
         <v>27702</v>
@@ -61303,7 +61187,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>114</v>
@@ -61315,13 +61199,13 @@
         <v>116</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>123</v>
@@ -61342,16 +61226,16 @@
         <v>111</v>
       </c>
       <c r="CC275" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="CD275" s="1" t="s">
         <v>666</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>131</v>
@@ -61365,10 +61249,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1380</v>
@@ -61383,7 +61267,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1380</v>
@@ -61392,19 +61276,19 @@
         <v>862</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="Q276" s="3">
         <v>23289</v>
@@ -61434,7 +61318,7 @@
         <v>106</v>
       </c>
       <c r="AG276" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="AH276" s="1" t="s">
         <v>588</v>
@@ -61452,7 +61336,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61488,7 +61372,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>114</v>
@@ -61500,13 +61384,13 @@
         <v>116</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>123</v>
@@ -61527,16 +61411,16 @@
         <v>111</v>
       </c>
       <c r="CC276" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="CD276" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>131</v>
@@ -61550,10 +61434,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1380</v>
@@ -61568,7 +61452,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1380</v>
@@ -61577,19 +61461,19 @@
         <v>862</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="Q277" s="3">
         <v>16546</v>
@@ -61637,7 +61521,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61673,7 +61557,7 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="BE277" s="1" t="s">
         <v>114</v>
@@ -61685,13 +61569,13 @@
         <v>116</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>123</v>
@@ -61715,13 +61599,13 @@
         <v>1101</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>131</v>
@@ -61735,10 +61619,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1380</v>
@@ -61753,7 +61637,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1380</v>
@@ -61762,19 +61646,19 @@
         <v>862</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="Q278" s="3">
         <v>12691</v>
@@ -61822,7 +61706,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61858,7 +61742,7 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="BE278" s="1" t="s">
         <v>114</v>
@@ -61870,13 +61754,13 @@
         <v>116</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>123</v>
@@ -61903,10 +61787,10 @@
         <v>2370</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="CG278" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>131</v>
@@ -61920,10 +61804,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1380</v>
@@ -61938,7 +61822,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1380</v>
@@ -61947,19 +61831,19 @@
         <v>862</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>2517</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="Q279" s="3">
         <v>23611</v>
@@ -61989,7 +61873,7 @@
         <v>106</v>
       </c>
       <c r="AG279" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="AH279" s="1" t="s">
         <v>588</v>
@@ -62004,7 +61888,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -62037,19 +61921,19 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>123</v>
@@ -62067,16 +61951,16 @@
         <v>111</v>
       </c>
       <c r="CC279" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="CD279" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="CG279" s="1" t="s">
         <v>3436</v>
-      </c>
-      <c r="CD279" s="1" t="s">
-        <v>3437</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3438</v>
-      </c>
-      <c r="CG279" s="1" t="s">
-        <v>3439</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>131</v>
@@ -62090,10 +61974,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1380</v>
@@ -62108,7 +61992,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1380</v>
@@ -62117,19 +62001,19 @@
         <v>862</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>2526</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="Q280" s="3">
         <v>16452</v>
@@ -62207,19 +62091,19 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>123</v>
@@ -62240,16 +62124,16 @@
         <v>2441</v>
       </c>
       <c r="CC280" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="CG280" s="1" t="s">
         <v>3446</v>
-      </c>
-      <c r="CD280" s="1" t="s">
-        <v>3447</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3448</v>
-      </c>
-      <c r="CG280" s="1" t="s">
-        <v>3449</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>131</v>
@@ -62263,10 +62147,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1380</v>
@@ -62281,7 +62165,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1380</v>
@@ -62290,19 +62174,19 @@
         <v>862</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P281" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="Q281" s="3">
         <v>18056</v>
@@ -62380,19 +62264,19 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>123</v>
@@ -62413,13 +62297,13 @@
         <v>1322</v>
       </c>
       <c r="CD281" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="CE281" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="CG281" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>131</v>
@@ -62433,10 +62317,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1380</v>
@@ -62451,7 +62335,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1380</v>
@@ -62460,19 +62344,19 @@
         <v>862</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P282" s="1" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="Q282" s="3">
         <v>26349</v>
@@ -62517,7 +62401,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62553,7 +62437,7 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="BE282" s="1" t="s">
         <v>114</v>
@@ -62565,13 +62449,13 @@
         <v>116</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>123</v>
@@ -62592,16 +62476,16 @@
         <v>92</v>
       </c>
       <c r="CC282" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="CD282" s="1" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="CG282" s="1" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>131</v>
@@ -62615,10 +62499,10 @@
         <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1380</v>
@@ -62633,7 +62517,7 @@
         <v>93</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1380</v>
@@ -62642,19 +62526,19 @@
         <v>862</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="Q283" s="3">
         <v>30589</v>
@@ -62702,7 +62586,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62738,7 +62622,7 @@
         <v>19</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="BE283" s="1" t="s">
         <v>114</v>
@@ -62750,13 +62634,13 @@
         <v>116</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>123</v>
@@ -62777,16 +62661,16 @@
         <v>111</v>
       </c>
       <c r="CC283" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="CD283" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="CG283" s="1" t="s">
         <v>3477</v>
-      </c>
-      <c r="CD283" s="1" t="s">
-        <v>3478</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3479</v>
-      </c>
-      <c r="CG283" s="1" t="s">
-        <v>3480</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>131</v>
@@ -62800,10 +62684,10 @@
         <v>87</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1380</v>
@@ -62818,7 +62702,7 @@
         <v>93</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1380</v>
@@ -62827,19 +62711,19 @@
         <v>862</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P284" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="Q284" s="3">
         <v>27354</v>
@@ -62887,7 +62771,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62923,7 +62807,7 @@
         <v>19</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="BE284" s="1" t="s">
         <v>114</v>
@@ -62935,13 +62819,13 @@
         <v>116</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>123</v>
@@ -62962,16 +62846,16 @@
         <v>111</v>
       </c>
       <c r="CC284" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="CD284" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="CE284" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="CG284" s="1" t="s">
         <v>3488</v>
-      </c>
-      <c r="CD284" s="1" t="s">
-        <v>3489</v>
-      </c>
-      <c r="CE284" s="1" t="s">
-        <v>3490</v>
-      </c>
-      <c r="CG284" s="1" t="s">
-        <v>3491</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>131</v>
@@ -62985,10 +62869,10 @@
         <v>87</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1380</v>
@@ -63003,7 +62887,7 @@
         <v>93</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1380</v>
@@ -63012,19 +62896,19 @@
         <v>862</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P285" s="1" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="Q285" s="3">
         <v>13756</v>
@@ -63105,7 +62989,7 @@
         <v>19</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="BE285" s="1" t="s">
         <v>114</v>
@@ -63117,13 +63001,13 @@
         <v>116</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="BM285" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>123</v>
@@ -63144,16 +63028,16 @@
         <v>111</v>
       </c>
       <c r="CC285" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="CE285" s="1" t="s">
         <v>210</v>
       </c>
       <c r="CG285" s="1" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>131</v>
@@ -63167,10 +63051,10 @@
         <v>87</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1380</v>
@@ -63185,7 +63069,7 @@
         <v>93</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1380</v>
@@ -63194,19 +63078,19 @@
         <v>862</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P286" s="1" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="Q286" s="3">
         <v>26074</v>
@@ -63254,7 +63138,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AO286" s="1">
         <v>0</v>
@@ -63290,7 +63174,7 @@
         <v>19</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="BE286" s="1" t="s">
         <v>114</v>
@@ -63302,19 +63186,19 @@
         <v>116</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="BM286" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BW286" s="1" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="BX286" s="1">
         <v>0</v>
@@ -63332,16 +63216,16 @@
         <v>111</v>
       </c>
       <c r="CC286" s="1" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="CD286" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="CE286" s="1" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="CG286" s="1" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="CH286" s="1" t="s">
         <v>131</v>
@@ -63355,10 +63239,10 @@
         <v>87</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1380</v>
@@ -63373,7 +63257,7 @@
         <v>93</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1380</v>
@@ -63382,19 +63266,19 @@
         <v>862</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P287" s="1" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="Q287" s="3">
         <v>28808</v>
@@ -63439,7 +63323,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="1" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="AO287" s="1">
         <v>0</v>
@@ -63475,7 +63359,7 @@
         <v>19</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="BE287" s="1" t="s">
         <v>114</v>
@@ -63487,13 +63371,13 @@
         <v>116</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>123</v>
@@ -63514,16 +63398,16 @@
         <v>111</v>
       </c>
       <c r="CC287" s="1" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="CD287" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="CE287" s="1" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="CG287" s="1" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>131</v>
@@ -63537,10 +63421,10 @@
         <v>87</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1380</v>
@@ -63555,7 +63439,7 @@
         <v>93</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1380</v>
@@ -63564,19 +63448,19 @@
         <v>862</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P288" s="1" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="R288" s="1" t="s">
         <v>138</v>
@@ -63597,7 +63481,7 @@
         <v>0</v>
       </c>
       <c r="AG288" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AH288" s="1" t="s">
         <v>407</v>
@@ -63612,7 +63496,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="1" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="AO288" s="1">
         <v>0</v>
@@ -63642,7 +63526,7 @@
         <v>19</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="BE288" s="1" t="s">
         <v>114</v>
@@ -63654,13 +63538,13 @@
         <v>116</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="BM288" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT288" s="1" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="BU288" s="1" t="s">
         <v>123</v>
@@ -63678,16 +63562,16 @@
         <v>111</v>
       </c>
       <c r="CC288" s="1" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="CD288" s="1" t="s">
         <v>316</v>
       </c>
       <c r="CE288" s="1" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="CG288" s="1" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="CH288" s="1" t="s">
         <v>131</v>
@@ -63701,10 +63585,10 @@
         <v>87</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1380</v>
@@ -63719,7 +63603,7 @@
         <v>93</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1380</v>
@@ -63728,19 +63612,19 @@
         <v>862</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P289" s="1" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="R289" s="1" t="s">
         <v>138</v>
@@ -63818,7 +63702,7 @@
         <v>19</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="BE289" s="1" t="s">
         <v>114</v>
@@ -63830,13 +63714,13 @@
         <v>116</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="BM289" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT289" s="1" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="BU289" s="1" t="s">
         <v>123</v>
@@ -63854,16 +63738,16 @@
         <v>111</v>
       </c>
       <c r="CC289" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="CD289" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="CE289" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="CG289" s="1" t="s">
         <v>3541</v>
-      </c>
-      <c r="CD289" s="1" t="s">
-        <v>3542</v>
-      </c>
-      <c r="CE289" s="1" t="s">
-        <v>3543</v>
-      </c>
-      <c r="CG289" s="1" t="s">
-        <v>3544</v>
       </c>
       <c r="CH289" s="1" t="s">
         <v>131</v>
@@ -63877,10 +63761,10 @@
         <v>87</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1380</v>
@@ -63895,7 +63779,7 @@
         <v>93</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>1380</v>
@@ -63904,19 +63788,19 @@
         <v>862</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="O290" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P290" s="1" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="Q290" s="3">
         <v>29466</v>
@@ -63997,7 +63881,7 @@
         <v>19</v>
       </c>
       <c r="BD290" s="1" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="BE290" s="1" t="s">
         <v>114</v>
@@ -64009,13 +63893,13 @@
         <v>116</v>
       </c>
       <c r="BH290" s="1" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="BM290" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT290" s="1" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="BU290" s="1" t="s">
         <v>123</v>
@@ -64033,16 +63917,16 @@
         <v>111</v>
       </c>
       <c r="CC290" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="CD290" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="CE290" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="CG290" s="1" t="s">
         <v>3552</v>
-      </c>
-      <c r="CD290" s="1" t="s">
-        <v>3553</v>
-      </c>
-      <c r="CE290" s="1" t="s">
-        <v>3554</v>
-      </c>
-      <c r="CG290" s="1" t="s">
-        <v>3555</v>
       </c>
       <c r="CH290" s="1" t="s">
         <v>131</v>
@@ -64056,10 +63940,10 @@
         <v>87</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1380</v>
@@ -64074,7 +63958,7 @@
         <v>93</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>1380</v>
@@ -64083,22 +63967,22 @@
         <v>862</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="O291" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P291" s="1" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="Q291" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="R291" s="1" t="s">
         <v>138</v>
@@ -64140,7 +64024,7 @@
         <v>0</v>
       </c>
       <c r="AN291" s="1" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="AO291" s="1">
         <v>0</v>
@@ -64173,7 +64057,7 @@
         <v>19</v>
       </c>
       <c r="BD291" s="1" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="BE291" s="1" t="s">
         <v>114</v>
@@ -64185,13 +64069,13 @@
         <v>116</v>
       </c>
       <c r="BH291" s="1" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="BM291" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BT291" s="1" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="BU291" s="1" t="s">
         <v>123</v>
@@ -64209,16 +64093,16 @@
         <v>111</v>
       </c>
       <c r="CC291" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="CD291" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="CE291" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="CG291" s="1" t="s">
         <v>3564</v>
-      </c>
-      <c r="CD291" s="1" t="s">
-        <v>3565</v>
-      </c>
-      <c r="CE291" s="1" t="s">
-        <v>3566</v>
-      </c>
-      <c r="CG291" s="1" t="s">
-        <v>3567</v>
       </c>
       <c r="CH291" s="1" t="s">
         <v>131</v>
@@ -64228,6 +64112,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI291" xr:uid="{09006ACE-780F-47D4-BC57-B9D7851C4D6F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>